--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>测试内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>10a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -162,13 +170,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -464,163 +680,252 @@
     <col min="3" max="4" width="20.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D15" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="D16" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="D17" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B19" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12">
         <v>4.5</v>
       </c>
+      <c r="C21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A19:A21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
